--- a/Code/Results/Cases/Case_0_250/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_250/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.008464127827644</v>
+        <v>1.039365724995899</v>
       </c>
       <c r="D2">
-        <v>1.02311913068234</v>
+        <v>1.049414599242759</v>
       </c>
       <c r="E2">
-        <v>1.022148497665398</v>
+        <v>1.04777698544212</v>
       </c>
       <c r="F2">
-        <v>1.029293138559269</v>
+        <v>1.058352371740531</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050795421323749</v>
+        <v>1.035471182256469</v>
       </c>
       <c r="J2">
-        <v>1.030394592270214</v>
+        <v>1.044458133295028</v>
       </c>
       <c r="K2">
-        <v>1.034265507914971</v>
+        <v>1.052171723055868</v>
       </c>
       <c r="L2">
-        <v>1.033307656994001</v>
+        <v>1.050538676133502</v>
       </c>
       <c r="M2">
-        <v>1.040358917780871</v>
+        <v>1.061084840223917</v>
       </c>
       <c r="N2">
-        <v>1.014018448023461</v>
+        <v>1.01874652582255</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.012941823450968</v>
+        <v>1.040305033722873</v>
       </c>
       <c r="D3">
-        <v>1.027077930998955</v>
+        <v>1.050297490872406</v>
       </c>
       <c r="E3">
-        <v>1.025926337793324</v>
+        <v>1.048623427870858</v>
       </c>
       <c r="F3">
-        <v>1.033527496595564</v>
+        <v>1.059310328472965</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051889384320911</v>
+        <v>1.035598168789212</v>
       </c>
       <c r="J3">
-        <v>1.0330857928798</v>
+        <v>1.04504266888431</v>
       </c>
       <c r="K3">
-        <v>1.037375682069757</v>
+        <v>1.052866673585557</v>
       </c>
       <c r="L3">
-        <v>1.036237894509137</v>
+        <v>1.051196941466026</v>
       </c>
       <c r="M3">
-        <v>1.043748632568311</v>
+        <v>1.061856448149011</v>
       </c>
       <c r="N3">
-        <v>1.014912280285451</v>
+        <v>1.018940185538238</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.015778061625923</v>
+        <v>1.04091285894864</v>
       </c>
       <c r="D4">
-        <v>1.029590552458004</v>
+        <v>1.050869139592445</v>
       </c>
       <c r="E4">
-        <v>1.028325270879597</v>
+        <v>1.049171584786451</v>
       </c>
       <c r="F4">
-        <v>1.036216632354164</v>
+        <v>1.05993081325743</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052564873521165</v>
+        <v>1.035678156644725</v>
       </c>
       <c r="J4">
-        <v>1.034786596619752</v>
+        <v>1.045420307439825</v>
       </c>
       <c r="K4">
-        <v>1.039344495738259</v>
+        <v>1.053316074325445</v>
       </c>
       <c r="L4">
-        <v>1.038093444065767</v>
+        <v>1.051622689984296</v>
       </c>
       <c r="M4">
-        <v>1.045896753644823</v>
+        <v>1.062355728618046</v>
       </c>
       <c r="N4">
-        <v>1.015477145418949</v>
+        <v>1.019065279602891</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.016956280712997</v>
+        <v>1.041168394757145</v>
       </c>
       <c r="D5">
-        <v>1.030635513924428</v>
+        <v>1.051109545239993</v>
       </c>
       <c r="E5">
-        <v>1.029323226603665</v>
+        <v>1.049402136812235</v>
       </c>
       <c r="F5">
-        <v>1.037335398562304</v>
+        <v>1.060191812762787</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052841234818933</v>
+        <v>1.035711260589304</v>
       </c>
       <c r="J5">
-        <v>1.035492178531641</v>
+        <v>1.045578923177098</v>
       </c>
       <c r="K5">
-        <v>1.040162043065811</v>
+        <v>1.053504934498214</v>
       </c>
       <c r="L5">
-        <v>1.038864111645891</v>
+        <v>1.051801627297735</v>
       </c>
       <c r="M5">
-        <v>1.046789327543659</v>
+        <v>1.062565624549014</v>
       </c>
       <c r="N5">
-        <v>1.015711472940975</v>
+        <v>1.019117816887041</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.017153294020793</v>
+        <v>1.041211300670829</v>
       </c>
       <c r="D6">
-        <v>1.030810313088882</v>
+        <v>1.051149915322668</v>
       </c>
       <c r="E6">
-        <v>1.029490178816928</v>
+        <v>1.049440853738211</v>
       </c>
       <c r="F6">
-        <v>1.037522567054393</v>
+        <v>1.060235644349295</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052887194427156</v>
+        <v>1.035716788196843</v>
       </c>
       <c r="J6">
-        <v>1.035610103378275</v>
+        <v>1.045605547010981</v>
       </c>
       <c r="K6">
-        <v>1.040298726982127</v>
+        <v>1.053536640936464</v>
       </c>
       <c r="L6">
-        <v>1.038992966824785</v>
+        <v>1.051831668849948</v>
       </c>
       <c r="M6">
-        <v>1.046938588615553</v>
+        <v>1.062600866870974</v>
       </c>
       <c r="N6">
-        <v>1.015750635891453</v>
+        <v>1.019126635052622</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.01579385994648</v>
+        <v>1.040916273408002</v>
       </c>
       <c r="D7">
-        <v>1.029604559366583</v>
+        <v>1.05087235157408</v>
       </c>
       <c r="E7">
-        <v>1.028338646629326</v>
+        <v>1.049174665015751</v>
       </c>
       <c r="F7">
-        <v>1.036231626990006</v>
+        <v>1.059934300166969</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052568596016968</v>
+        <v>1.03567860103715</v>
       </c>
       <c r="J7">
-        <v>1.034796061356072</v>
+        <v>1.045422427436308</v>
       </c>
       <c r="K7">
-        <v>1.039355459290981</v>
+        <v>1.053318598152595</v>
       </c>
       <c r="L7">
-        <v>1.038103778343051</v>
+        <v>1.05162508114096</v>
       </c>
       <c r="M7">
-        <v>1.045908721069099</v>
+        <v>1.062358533265507</v>
       </c>
       <c r="N7">
-        <v>1.015480288742281</v>
+        <v>1.01906598181448</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.009990352244536</v>
+        <v>1.039683162023555</v>
       </c>
       <c r="D8">
-        <v>1.024467405538809</v>
+        <v>1.049712901488923</v>
       </c>
       <c r="E8">
-        <v>1.023434894863137</v>
+        <v>1.048062950201645</v>
       </c>
       <c r="F8">
-        <v>1.030734926501234</v>
+        <v>1.058675987937798</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051171920289895</v>
+        <v>1.035514549026451</v>
       </c>
       <c r="J8">
-        <v>1.031312672052433</v>
+        <v>1.044655802413753</v>
       </c>
       <c r="K8">
-        <v>1.035325843817707</v>
+        <v>1.052406641850534</v>
       </c>
       <c r="L8">
-        <v>1.034306513312406</v>
+        <v>1.050761179311078</v>
       </c>
       <c r="M8">
-        <v>1.041514065578706</v>
+        <v>1.061345608298706</v>
       </c>
       <c r="N8">
-        <v>1.014323375297923</v>
+        <v>1.01881201867774</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9992718634491123</v>
+        <v>1.037510533938304</v>
       </c>
       <c r="D9">
-        <v>1.015021700075736</v>
+        <v>1.047672610336433</v>
       </c>
       <c r="E9">
-        <v>1.014427809218497</v>
+        <v>1.046107488833</v>
       </c>
       <c r="F9">
-        <v>1.020640683431545</v>
+        <v>1.056463510749494</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04845625538162</v>
+        <v>1.035208801414458</v>
       </c>
       <c r="J9">
-        <v>1.024850360322046</v>
+        <v>1.043300399780735</v>
       </c>
       <c r="K9">
-        <v>1.027875672955017</v>
+        <v>1.050797574888201</v>
       </c>
       <c r="L9">
-        <v>1.027291063270571</v>
+        <v>1.049237443421727</v>
       </c>
       <c r="M9">
-        <v>1.033407526669348</v>
+        <v>1.059560747793674</v>
       </c>
       <c r="N9">
-        <v>1.012176980393139</v>
+        <v>1.01836285985382</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9917599813565882</v>
+        <v>1.03606235574764</v>
       </c>
       <c r="D10">
-        <v>1.008433013119044</v>
+        <v>1.046314383593741</v>
       </c>
       <c r="E10">
-        <v>1.00815179610419</v>
+        <v>1.04480629537158</v>
       </c>
       <c r="F10">
-        <v>1.013607704338247</v>
+        <v>1.054991853009912</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046464828051278</v>
+        <v>1.03499381156619</v>
       </c>
       <c r="J10">
-        <v>1.020304384085549</v>
+        <v>1.042393825469102</v>
       </c>
       <c r="K10">
-        <v>1.022651658129907</v>
+        <v>1.049723530387952</v>
       </c>
       <c r="L10">
-        <v>1.022375410842429</v>
+        <v>1.04822072236117</v>
       </c>
       <c r="M10">
-        <v>1.027735538472977</v>
+        <v>1.058370940573601</v>
       </c>
       <c r="N10">
-        <v>1.010667128062257</v>
+        <v>1.018062337543619</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9884117862968307</v>
+        <v>1.035435347172047</v>
       </c>
       <c r="D11">
-        <v>1.005504344483731</v>
+        <v>1.045726739301391</v>
       </c>
       <c r="E11">
-        <v>1.005363783054632</v>
+        <v>1.044243461035725</v>
       </c>
       <c r="F11">
-        <v>1.010483371656701</v>
+        <v>1.05435541441579</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045557190249155</v>
+        <v>1.034898081793185</v>
       </c>
       <c r="J11">
-        <v>1.018274723042045</v>
+        <v>1.042000576078215</v>
       </c>
       <c r="K11">
-        <v>1.020323198150259</v>
+        <v>1.049258154835188</v>
       </c>
       <c r="L11">
-        <v>1.020185250259098</v>
+        <v>1.047780271338031</v>
       </c>
       <c r="M11">
-        <v>1.025210258386441</v>
+        <v>1.05785577909278</v>
       </c>
       <c r="N11">
-        <v>1.00999305846188</v>
+        <v>1.017931955622681</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9871529763393854</v>
+        <v>1.035202458454845</v>
       </c>
       <c r="D12">
-        <v>1.004404528527026</v>
+        <v>1.045508534947021</v>
       </c>
       <c r="E12">
-        <v>1.004317046417859</v>
+        <v>1.044034489367494</v>
       </c>
       <c r="F12">
-        <v>1.009310342909343</v>
+        <v>1.054119134077717</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045213019764185</v>
+        <v>1.03486212793302</v>
       </c>
       <c r="J12">
-        <v>1.017511175754623</v>
+        <v>1.041854402009887</v>
       </c>
       <c r="K12">
-        <v>1.019447828433378</v>
+        <v>1.049085248538905</v>
       </c>
       <c r="L12">
-        <v>1.019362003372168</v>
+        <v>1.047616638570509</v>
       </c>
       <c r="M12">
-        <v>1.024261319077662</v>
+        <v>1.057664431241155</v>
       </c>
       <c r="N12">
-        <v>1.009739485753091</v>
+        <v>1.017883488186244</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9874236938867245</v>
+        <v>1.035252413400738</v>
       </c>
       <c r="D13">
-        <v>1.00464099492756</v>
+        <v>1.045555337202693</v>
       </c>
       <c r="E13">
-        <v>1.004542088686721</v>
+        <v>1.044079310403778</v>
       </c>
       <c r="F13">
-        <v>1.009562538580982</v>
+        <v>1.054169811503294</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045287167518728</v>
+        <v>1.034869858046338</v>
       </c>
       <c r="J13">
-        <v>1.017675402956185</v>
+        <v>1.04188576152294</v>
       </c>
       <c r="K13">
-        <v>1.019636080616371</v>
+        <v>1.049122339550143</v>
       </c>
       <c r="L13">
-        <v>1.019539040404938</v>
+        <v>1.047651739679919</v>
       </c>
       <c r="M13">
-        <v>1.024465373665222</v>
+        <v>1.057705475712777</v>
       </c>
       <c r="N13">
-        <v>1.00979402489056</v>
+        <v>1.017893886320314</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9883080463383669</v>
+        <v>1.035416096305354</v>
       </c>
       <c r="D14">
-        <v>1.005413681325741</v>
+        <v>1.04570870096698</v>
       </c>
       <c r="E14">
-        <v>1.005277490188492</v>
+        <v>1.044226185527834</v>
       </c>
       <c r="F14">
-        <v>1.010386667857916</v>
+        <v>1.0543358809277</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045528885828994</v>
+        <v>1.034895117900991</v>
       </c>
       <c r="J14">
-        <v>1.018211807323905</v>
+        <v>1.041988495394875</v>
       </c>
       <c r="K14">
-        <v>1.020251056514219</v>
+        <v>1.049243863260634</v>
       </c>
       <c r="L14">
-        <v>1.020117401556934</v>
+        <v>1.047766746001345</v>
       </c>
       <c r="M14">
-        <v>1.025132045093588</v>
+        <v>1.057839962089613</v>
       </c>
       <c r="N14">
-        <v>1.00997216407445</v>
+        <v>1.017927950058118</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9888508940198812</v>
+        <v>1.035516948120115</v>
       </c>
       <c r="D15">
-        <v>1.005888153024886</v>
+        <v>1.045803203141397</v>
       </c>
       <c r="E15">
-        <v>1.005729101212069</v>
+        <v>1.04431669211153</v>
       </c>
       <c r="F15">
-        <v>1.010892763110139</v>
+        <v>1.054438217891313</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045676877553426</v>
+        <v>1.034910628937322</v>
       </c>
       <c r="J15">
-        <v>1.01854101249382</v>
+        <v>1.042051779406139</v>
       </c>
       <c r="K15">
-        <v>1.020628559868462</v>
+        <v>1.049318732085434</v>
       </c>
       <c r="L15">
-        <v>1.020472446120878</v>
+        <v>1.047837601293519</v>
       </c>
       <c r="M15">
-        <v>1.025541337503359</v>
+        <v>1.057922824421308</v>
       </c>
       <c r="N15">
-        <v>1.010081493880008</v>
+        <v>1.017948932854418</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9919801115101816</v>
+        <v>1.036103969623606</v>
       </c>
       <c r="D16">
-        <v>1.008625733398958</v>
+        <v>1.046353393764406</v>
       </c>
       <c r="E16">
-        <v>1.008335296032032</v>
+        <v>1.044843661393491</v>
       </c>
       <c r="F16">
-        <v>1.013813337575858</v>
+        <v>1.05503410828374</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04652409119544</v>
+        <v>1.035000109324263</v>
       </c>
       <c r="J16">
-        <v>1.020437759009757</v>
+        <v>1.042419909537178</v>
       </c>
       <c r="K16">
-        <v>1.022804749239721</v>
+        <v>1.049754409448871</v>
       </c>
       <c r="L16">
-        <v>1.022519427014118</v>
+        <v>1.048249949431855</v>
       </c>
       <c r="M16">
-        <v>1.027901629060056</v>
+        <v>1.05840513093308</v>
       </c>
       <c r="N16">
-        <v>1.010711424184318</v>
+        <v>1.01807098524471</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9939168761767525</v>
+        <v>1.036472209941274</v>
       </c>
       <c r="D17">
-        <v>1.010322260048046</v>
+        <v>1.046698642364059</v>
       </c>
       <c r="E17">
-        <v>1.009950846783782</v>
+        <v>1.045174374433453</v>
       </c>
       <c r="F17">
-        <v>1.015623744462791</v>
+        <v>1.055408109371809</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047043236161825</v>
+        <v>1.035055532325885</v>
       </c>
       <c r="J17">
-        <v>1.021610843776923</v>
+        <v>1.04265064197418</v>
       </c>
       <c r="K17">
-        <v>1.024151691320608</v>
+        <v>1.050027616852184</v>
       </c>
       <c r="L17">
-        <v>1.023786622527638</v>
+        <v>1.048508550602672</v>
       </c>
       <c r="M17">
-        <v>1.029363268339428</v>
+        <v>1.058707678664073</v>
       </c>
       <c r="N17">
-        <v>1.011101030851515</v>
+        <v>1.018147477782951</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9950374003180268</v>
+        <v>1.036687004227081</v>
       </c>
       <c r="D18">
-        <v>1.011304551841503</v>
+        <v>1.046900065956187</v>
       </c>
       <c r="E18">
-        <v>1.01088641174533</v>
+        <v>1.04536733069447</v>
       </c>
       <c r="F18">
-        <v>1.016672146878471</v>
+        <v>1.055626334878503</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047341686135317</v>
+        <v>1.035087605071824</v>
       </c>
       <c r="J18">
-        <v>1.022289208600527</v>
+        <v>1.042785157013816</v>
       </c>
       <c r="K18">
-        <v>1.024930965872537</v>
+        <v>1.050186944397694</v>
       </c>
       <c r="L18">
-        <v>1.024519840643807</v>
+        <v>1.048659368530462</v>
       </c>
       <c r="M18">
-        <v>1.030209171797741</v>
+        <v>1.058884152736385</v>
       </c>
       <c r="N18">
-        <v>1.011326334062739</v>
+        <v>1.01819207007775</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.995417939926339</v>
+        <v>1.03676024450913</v>
       </c>
       <c r="D19">
-        <v>1.011638273537043</v>
+        <v>1.04696875394712</v>
       </c>
       <c r="E19">
-        <v>1.011204285223765</v>
+        <v>1.045433133412303</v>
       </c>
       <c r="F19">
-        <v>1.017028358570823</v>
+        <v>1.055700757158727</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047442717072047</v>
+        <v>1.035098497850312</v>
       </c>
       <c r="J19">
-        <v>1.022519529801804</v>
+        <v>1.042831011724347</v>
       </c>
       <c r="K19">
-        <v>1.025195611727675</v>
+        <v>1.050241265901614</v>
       </c>
       <c r="L19">
-        <v>1.024768859182492</v>
+        <v>1.0487107901637</v>
       </c>
       <c r="M19">
-        <v>1.030496491257525</v>
+        <v>1.058944326326178</v>
       </c>
       <c r="N19">
-        <v>1.011402830481193</v>
+        <v>1.018207270730398</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9937100324579788</v>
+        <v>1.036432700619693</v>
       </c>
       <c r="D20">
-        <v>1.010140994307514</v>
+        <v>1.046661595697307</v>
       </c>
       <c r="E20">
-        <v>1.009778216455312</v>
+        <v>1.045138886155294</v>
       </c>
       <c r="F20">
-        <v>1.015430293197006</v>
+        <v>1.055367974620936</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046987989195276</v>
+        <v>1.035049612286628</v>
       </c>
       <c r="J20">
-        <v>1.021485593733483</v>
+        <v>1.042625893520292</v>
       </c>
       <c r="K20">
-        <v>1.024007839949205</v>
+        <v>1.049998307348815</v>
       </c>
       <c r="L20">
-        <v>1.023651279552321</v>
+        <v>1.048480807180887</v>
       </c>
       <c r="M20">
-        <v>1.029207139423281</v>
+        <v>1.058675217827086</v>
       </c>
       <c r="N20">
-        <v>1.011059432221345</v>
+        <v>1.01813927339007</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.988048051213297</v>
+        <v>1.035367895481666</v>
       </c>
       <c r="D21">
-        <v>1.005186480130859</v>
+        <v>1.045663537138396</v>
       </c>
       <c r="E21">
-        <v>1.005061245098771</v>
+        <v>1.044182931968183</v>
       </c>
       <c r="F21">
-        <v>1.010144333116622</v>
+        <v>1.054286974262973</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04545790183105</v>
+        <v>1.03488769041694</v>
       </c>
       <c r="J21">
-        <v>1.018054119451816</v>
+        <v>1.04195824568624</v>
       </c>
       <c r="K21">
-        <v>1.020070254786994</v>
+        <v>1.04920807879318</v>
       </c>
       <c r="L21">
-        <v>1.01994736090226</v>
+        <v>1.047732880316399</v>
       </c>
       <c r="M21">
-        <v>1.024936033358227</v>
+        <v>1.057800359027395</v>
       </c>
       <c r="N21">
-        <v>1.009919795884351</v>
+        <v>1.017917920176692</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9844001010397557</v>
+        <v>1.034698469576369</v>
       </c>
       <c r="D22">
-        <v>1.002001750554732</v>
+        <v>1.04503644050876</v>
       </c>
       <c r="E22">
-        <v>1.002030714297684</v>
+        <v>1.043582407337261</v>
       </c>
       <c r="F22">
-        <v>1.006748095621657</v>
+        <v>1.053608008819879</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044455060319496</v>
+        <v>1.034783595478347</v>
       </c>
       <c r="J22">
-        <v>1.015840594340219</v>
+        <v>1.041537869275632</v>
       </c>
       <c r="K22">
-        <v>1.017533656403578</v>
+        <v>1.048710970348338</v>
       </c>
       <c r="L22">
-        <v>1.017562049397252</v>
+        <v>1.047262457985065</v>
       </c>
       <c r="M22">
-        <v>1.022187046338005</v>
+        <v>1.05725033618638</v>
       </c>
       <c r="N22">
-        <v>1.009184707122505</v>
+        <v>1.017778528176612</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9863425734906979</v>
+        <v>1.035053339006644</v>
       </c>
       <c r="D23">
-        <v>1.003696847913371</v>
+        <v>1.045368835839978</v>
       </c>
       <c r="E23">
-        <v>1.003643593588826</v>
+        <v>1.043900706932134</v>
       </c>
       <c r="F23">
-        <v>1.008555627105487</v>
+        <v>1.053967874248908</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044990632743179</v>
+        <v>1.034838994830628</v>
       </c>
       <c r="J23">
-        <v>1.017019492097295</v>
+        <v>1.041760775298662</v>
       </c>
       <c r="K23">
-        <v>1.01888430097224</v>
+        <v>1.048974521270928</v>
       </c>
       <c r="L23">
-        <v>1.01883206732347</v>
+        <v>1.047511853637171</v>
       </c>
       <c r="M23">
-        <v>1.023650549303623</v>
+        <v>1.057541909954375</v>
       </c>
       <c r="N23">
-        <v>1.009576201201439</v>
+        <v>1.017852443106324</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9938035244737937</v>
+        <v>1.036450553163117</v>
       </c>
       <c r="D24">
-        <v>1.010222922895937</v>
+        <v>1.046678335349546</v>
       </c>
       <c r="E24">
-        <v>1.009856241515141</v>
+        <v>1.045154921604784</v>
       </c>
       <c r="F24">
-        <v>1.015517728866494</v>
+        <v>1.055386109549447</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047012966374167</v>
+        <v>1.035052288084118</v>
       </c>
       <c r="J24">
-        <v>1.021542206962159</v>
+        <v>1.04263707648928</v>
       </c>
       <c r="K24">
-        <v>1.024072859853366</v>
+        <v>1.050011551143643</v>
       </c>
       <c r="L24">
-        <v>1.023712453464515</v>
+        <v>1.048493343300112</v>
       </c>
       <c r="M24">
-        <v>1.02927770785961</v>
+        <v>1.058689885472556</v>
       </c>
       <c r="N24">
-        <v>1.011078234860409</v>
+        <v>1.018142980677809</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.002104656399226</v>
+        <v>1.03807217219489</v>
       </c>
       <c r="D25">
-        <v>1.01751293956123</v>
+        <v>1.048199733527884</v>
       </c>
       <c r="E25">
-        <v>1.016802229821301</v>
+        <v>1.046612596869753</v>
       </c>
       <c r="F25">
-        <v>1.023301544840235</v>
+        <v>1.057034908536952</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049189456029155</v>
+        <v>1.035289814662173</v>
       </c>
       <c r="J25">
-        <v>1.026561397467668</v>
+        <v>1.04365133219559</v>
       </c>
       <c r="K25">
-        <v>1.029845339370013</v>
+        <v>1.05121379717176</v>
       </c>
       <c r="L25">
-        <v>1.029145194274012</v>
+        <v>1.049631528505565</v>
       </c>
       <c r="M25">
-        <v>1.035548591147228</v>
+        <v>1.060022164605759</v>
       </c>
       <c r="N25">
-        <v>1.012745285551194</v>
+        <v>1.01847917066416</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_250/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_250/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.039365724995899</v>
+        <v>1.008464127827643</v>
       </c>
       <c r="D2">
-        <v>1.049414599242759</v>
+        <v>1.023119130682338</v>
       </c>
       <c r="E2">
-        <v>1.04777698544212</v>
+        <v>1.022148497665397</v>
       </c>
       <c r="F2">
-        <v>1.058352371740531</v>
+        <v>1.029293138559268</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035471182256469</v>
+        <v>1.050795421323748</v>
       </c>
       <c r="J2">
-        <v>1.044458133295028</v>
+        <v>1.030394592270213</v>
       </c>
       <c r="K2">
-        <v>1.052171723055868</v>
+        <v>1.034265507914969</v>
       </c>
       <c r="L2">
-        <v>1.050538676133502</v>
+        <v>1.033307656993999</v>
       </c>
       <c r="M2">
-        <v>1.061084840223917</v>
+        <v>1.040358917780869</v>
       </c>
       <c r="N2">
-        <v>1.01874652582255</v>
+        <v>1.014018448023461</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.040305033722873</v>
+        <v>1.012941823450968</v>
       </c>
       <c r="D3">
-        <v>1.050297490872406</v>
+        <v>1.027077930998955</v>
       </c>
       <c r="E3">
-        <v>1.048623427870858</v>
+        <v>1.025926337793323</v>
       </c>
       <c r="F3">
-        <v>1.059310328472965</v>
+        <v>1.033527496595564</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035598168789212</v>
+        <v>1.051889384320911</v>
       </c>
       <c r="J3">
-        <v>1.04504266888431</v>
+        <v>1.033085792879799</v>
       </c>
       <c r="K3">
-        <v>1.052866673585557</v>
+        <v>1.037375682069757</v>
       </c>
       <c r="L3">
-        <v>1.051196941466026</v>
+        <v>1.036237894509136</v>
       </c>
       <c r="M3">
-        <v>1.061856448149011</v>
+        <v>1.043748632568311</v>
       </c>
       <c r="N3">
-        <v>1.018940185538238</v>
+        <v>1.01491228028545</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.04091285894864</v>
+        <v>1.015778061625923</v>
       </c>
       <c r="D4">
-        <v>1.050869139592445</v>
+        <v>1.029590552458004</v>
       </c>
       <c r="E4">
-        <v>1.049171584786451</v>
+        <v>1.028325270879597</v>
       </c>
       <c r="F4">
-        <v>1.05993081325743</v>
+        <v>1.036216632354164</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035678156644725</v>
+        <v>1.052564873521165</v>
       </c>
       <c r="J4">
-        <v>1.045420307439825</v>
+        <v>1.034786596619752</v>
       </c>
       <c r="K4">
-        <v>1.053316074325445</v>
+        <v>1.039344495738259</v>
       </c>
       <c r="L4">
-        <v>1.051622689984296</v>
+        <v>1.038093444065767</v>
       </c>
       <c r="M4">
-        <v>1.062355728618046</v>
+        <v>1.045896753644823</v>
       </c>
       <c r="N4">
-        <v>1.019065279602891</v>
+        <v>1.015477145418949</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.041168394757145</v>
+        <v>1.016956280712997</v>
       </c>
       <c r="D5">
-        <v>1.051109545239993</v>
+        <v>1.030635513924428</v>
       </c>
       <c r="E5">
-        <v>1.049402136812235</v>
+        <v>1.029323226603666</v>
       </c>
       <c r="F5">
-        <v>1.060191812762787</v>
+        <v>1.037335398562304</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035711260589304</v>
+        <v>1.052841234818933</v>
       </c>
       <c r="J5">
-        <v>1.045578923177098</v>
+        <v>1.035492178531641</v>
       </c>
       <c r="K5">
-        <v>1.053504934498214</v>
+        <v>1.040162043065811</v>
       </c>
       <c r="L5">
-        <v>1.051801627297735</v>
+        <v>1.038864111645892</v>
       </c>
       <c r="M5">
-        <v>1.062565624549014</v>
+        <v>1.046789327543659</v>
       </c>
       <c r="N5">
-        <v>1.019117816887041</v>
+        <v>1.015711472940975</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.041211300670829</v>
+        <v>1.017153294020792</v>
       </c>
       <c r="D6">
-        <v>1.051149915322668</v>
+        <v>1.030810313088882</v>
       </c>
       <c r="E6">
-        <v>1.049440853738211</v>
+        <v>1.029490178816926</v>
       </c>
       <c r="F6">
-        <v>1.060235644349295</v>
+        <v>1.037522567054392</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035716788196843</v>
+        <v>1.052887194427156</v>
       </c>
       <c r="J6">
-        <v>1.045605547010981</v>
+        <v>1.035610103378274</v>
       </c>
       <c r="K6">
-        <v>1.053536640936464</v>
+        <v>1.040298726982126</v>
       </c>
       <c r="L6">
-        <v>1.051831668849948</v>
+        <v>1.038992966824784</v>
       </c>
       <c r="M6">
-        <v>1.062600866870974</v>
+        <v>1.046938588615552</v>
       </c>
       <c r="N6">
-        <v>1.019126635052622</v>
+        <v>1.015750635891453</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.040916273408002</v>
+        <v>1.015793859946479</v>
       </c>
       <c r="D7">
-        <v>1.05087235157408</v>
+        <v>1.029604559366582</v>
       </c>
       <c r="E7">
-        <v>1.049174665015751</v>
+        <v>1.028338646629325</v>
       </c>
       <c r="F7">
-        <v>1.059934300166969</v>
+        <v>1.036231626990006</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03567860103715</v>
+        <v>1.052568596016968</v>
       </c>
       <c r="J7">
-        <v>1.045422427436308</v>
+        <v>1.034796061356071</v>
       </c>
       <c r="K7">
-        <v>1.053318598152595</v>
+        <v>1.03935545929098</v>
       </c>
       <c r="L7">
-        <v>1.05162508114096</v>
+        <v>1.038103778343051</v>
       </c>
       <c r="M7">
-        <v>1.062358533265507</v>
+        <v>1.045908721069099</v>
       </c>
       <c r="N7">
-        <v>1.01906598181448</v>
+        <v>1.01548028874228</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.039683162023555</v>
+        <v>1.009990352244536</v>
       </c>
       <c r="D8">
-        <v>1.049712901488923</v>
+        <v>1.024467405538809</v>
       </c>
       <c r="E8">
-        <v>1.048062950201645</v>
+        <v>1.023434894863137</v>
       </c>
       <c r="F8">
-        <v>1.058675987937798</v>
+        <v>1.030734926501235</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035514549026451</v>
+        <v>1.051171920289895</v>
       </c>
       <c r="J8">
-        <v>1.044655802413753</v>
+        <v>1.031312672052433</v>
       </c>
       <c r="K8">
-        <v>1.052406641850534</v>
+        <v>1.035325843817708</v>
       </c>
       <c r="L8">
-        <v>1.050761179311078</v>
+        <v>1.034306513312407</v>
       </c>
       <c r="M8">
-        <v>1.061345608298706</v>
+        <v>1.041514065578706</v>
       </c>
       <c r="N8">
-        <v>1.01881201867774</v>
+        <v>1.014323375297923</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.037510533938304</v>
+        <v>0.9992718634491112</v>
       </c>
       <c r="D9">
-        <v>1.047672610336433</v>
+        <v>1.015021700075734</v>
       </c>
       <c r="E9">
-        <v>1.046107488833</v>
+        <v>1.014427809218496</v>
       </c>
       <c r="F9">
-        <v>1.056463510749494</v>
+        <v>1.020640683431544</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035208801414458</v>
+        <v>1.048456255381619</v>
       </c>
       <c r="J9">
-        <v>1.043300399780735</v>
+        <v>1.024850360322045</v>
       </c>
       <c r="K9">
-        <v>1.050797574888201</v>
+        <v>1.027875672955015</v>
       </c>
       <c r="L9">
-        <v>1.049237443421727</v>
+        <v>1.02729106327057</v>
       </c>
       <c r="M9">
-        <v>1.059560747793674</v>
+        <v>1.033407526669346</v>
       </c>
       <c r="N9">
-        <v>1.01836285985382</v>
+        <v>1.012176980393138</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.03606235574764</v>
+        <v>0.9917599813565886</v>
       </c>
       <c r="D10">
-        <v>1.046314383593741</v>
+        <v>1.008433013119045</v>
       </c>
       <c r="E10">
-        <v>1.04480629537158</v>
+        <v>1.00815179610419</v>
       </c>
       <c r="F10">
-        <v>1.054991853009912</v>
+        <v>1.013607704338247</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03499381156619</v>
+        <v>1.046464828051278</v>
       </c>
       <c r="J10">
-        <v>1.042393825469102</v>
+        <v>1.020304384085549</v>
       </c>
       <c r="K10">
-        <v>1.049723530387952</v>
+        <v>1.022651658129907</v>
       </c>
       <c r="L10">
-        <v>1.04822072236117</v>
+        <v>1.022375410842429</v>
       </c>
       <c r="M10">
-        <v>1.058370940573601</v>
+        <v>1.027735538472977</v>
       </c>
       <c r="N10">
-        <v>1.018062337543619</v>
+        <v>1.010667128062257</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.035435347172047</v>
+        <v>0.9884117862968297</v>
       </c>
       <c r="D11">
-        <v>1.045726739301391</v>
+        <v>1.00550434448373</v>
       </c>
       <c r="E11">
-        <v>1.044243461035725</v>
+        <v>1.00536378305463</v>
       </c>
       <c r="F11">
-        <v>1.05435541441579</v>
+        <v>1.010483371656699</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034898081793185</v>
+        <v>1.045557190249154</v>
       </c>
       <c r="J11">
-        <v>1.042000576078215</v>
+        <v>1.018274723042044</v>
       </c>
       <c r="K11">
-        <v>1.049258154835188</v>
+        <v>1.020323198150258</v>
       </c>
       <c r="L11">
-        <v>1.047780271338031</v>
+        <v>1.020185250259096</v>
       </c>
       <c r="M11">
-        <v>1.05785577909278</v>
+        <v>1.025210258386439</v>
       </c>
       <c r="N11">
-        <v>1.017931955622681</v>
+        <v>1.009993058461879</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.035202458454845</v>
+        <v>0.9871529763393846</v>
       </c>
       <c r="D12">
-        <v>1.045508534947021</v>
+        <v>1.004404528527025</v>
       </c>
       <c r="E12">
-        <v>1.044034489367494</v>
+        <v>1.004317046417858</v>
       </c>
       <c r="F12">
-        <v>1.054119134077717</v>
+        <v>1.009310342909343</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03486212793302</v>
+        <v>1.045213019764185</v>
       </c>
       <c r="J12">
-        <v>1.041854402009887</v>
+        <v>1.017511175754623</v>
       </c>
       <c r="K12">
-        <v>1.049085248538905</v>
+        <v>1.019447828433377</v>
       </c>
       <c r="L12">
-        <v>1.047616638570509</v>
+        <v>1.019362003372168</v>
       </c>
       <c r="M12">
-        <v>1.057664431241155</v>
+        <v>1.024261319077661</v>
       </c>
       <c r="N12">
-        <v>1.017883488186244</v>
+        <v>1.009739485753091</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.035252413400738</v>
+        <v>0.9874236938867244</v>
       </c>
       <c r="D13">
-        <v>1.045555337202693</v>
+        <v>1.00464099492756</v>
       </c>
       <c r="E13">
-        <v>1.044079310403778</v>
+        <v>1.004542088686721</v>
       </c>
       <c r="F13">
-        <v>1.054169811503294</v>
+        <v>1.009562538580982</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034869858046338</v>
+        <v>1.045287167518728</v>
       </c>
       <c r="J13">
-        <v>1.04188576152294</v>
+        <v>1.017675402956185</v>
       </c>
       <c r="K13">
-        <v>1.049122339550143</v>
+        <v>1.019636080616371</v>
       </c>
       <c r="L13">
-        <v>1.047651739679919</v>
+        <v>1.019539040404938</v>
       </c>
       <c r="M13">
-        <v>1.057705475712777</v>
+        <v>1.024465373665222</v>
       </c>
       <c r="N13">
-        <v>1.017893886320314</v>
+        <v>1.00979402489056</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.035416096305354</v>
+        <v>0.9883080463383673</v>
       </c>
       <c r="D14">
-        <v>1.04570870096698</v>
+        <v>1.005413681325742</v>
       </c>
       <c r="E14">
-        <v>1.044226185527834</v>
+        <v>1.005277490188493</v>
       </c>
       <c r="F14">
-        <v>1.0543358809277</v>
+        <v>1.010386667857917</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034895117900991</v>
+        <v>1.045528885828994</v>
       </c>
       <c r="J14">
-        <v>1.041988495394875</v>
+        <v>1.018211807323905</v>
       </c>
       <c r="K14">
-        <v>1.049243863260634</v>
+        <v>1.02025105651422</v>
       </c>
       <c r="L14">
-        <v>1.047766746001345</v>
+        <v>1.020117401556934</v>
       </c>
       <c r="M14">
-        <v>1.057839962089613</v>
+        <v>1.025132045093588</v>
       </c>
       <c r="N14">
-        <v>1.017927950058118</v>
+        <v>1.00997216407445</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.035516948120115</v>
+        <v>0.9888508940198812</v>
       </c>
       <c r="D15">
-        <v>1.045803203141397</v>
+        <v>1.005888153024886</v>
       </c>
       <c r="E15">
-        <v>1.04431669211153</v>
+        <v>1.005729101212069</v>
       </c>
       <c r="F15">
-        <v>1.054438217891313</v>
+        <v>1.010892763110139</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034910628937322</v>
+        <v>1.045676877553426</v>
       </c>
       <c r="J15">
-        <v>1.042051779406139</v>
+        <v>1.01854101249382</v>
       </c>
       <c r="K15">
-        <v>1.049318732085434</v>
+        <v>1.020628559868462</v>
       </c>
       <c r="L15">
-        <v>1.047837601293519</v>
+        <v>1.020472446120878</v>
       </c>
       <c r="M15">
-        <v>1.057922824421308</v>
+        <v>1.025541337503359</v>
       </c>
       <c r="N15">
-        <v>1.017948932854418</v>
+        <v>1.010081493880008</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.036103969623606</v>
+        <v>0.9919801115101821</v>
       </c>
       <c r="D16">
-        <v>1.046353393764406</v>
+        <v>1.008625733398959</v>
       </c>
       <c r="E16">
-        <v>1.044843661393491</v>
+        <v>1.008335296032032</v>
       </c>
       <c r="F16">
-        <v>1.05503410828374</v>
+        <v>1.013813337575859</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035000109324263</v>
+        <v>1.04652409119544</v>
       </c>
       <c r="J16">
-        <v>1.042419909537178</v>
+        <v>1.020437759009757</v>
       </c>
       <c r="K16">
-        <v>1.049754409448871</v>
+        <v>1.022804749239721</v>
       </c>
       <c r="L16">
-        <v>1.048249949431855</v>
+        <v>1.022519427014118</v>
       </c>
       <c r="M16">
-        <v>1.05840513093308</v>
+        <v>1.027901629060056</v>
       </c>
       <c r="N16">
-        <v>1.01807098524471</v>
+        <v>1.010711424184318</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.036472209941274</v>
+        <v>0.993916876176753</v>
       </c>
       <c r="D17">
-        <v>1.046698642364059</v>
+        <v>1.010322260048047</v>
       </c>
       <c r="E17">
-        <v>1.045174374433453</v>
+        <v>1.009950846783783</v>
       </c>
       <c r="F17">
-        <v>1.055408109371809</v>
+        <v>1.015623744462791</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035055532325885</v>
+        <v>1.047043236161826</v>
       </c>
       <c r="J17">
-        <v>1.04265064197418</v>
+        <v>1.021610843776924</v>
       </c>
       <c r="K17">
-        <v>1.050027616852184</v>
+        <v>1.024151691320609</v>
       </c>
       <c r="L17">
-        <v>1.048508550602672</v>
+        <v>1.023786622527638</v>
       </c>
       <c r="M17">
-        <v>1.058707678664073</v>
+        <v>1.029363268339428</v>
       </c>
       <c r="N17">
-        <v>1.018147477782951</v>
+        <v>1.011101030851515</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.036687004227081</v>
+        <v>0.9950374003180265</v>
       </c>
       <c r="D18">
-        <v>1.046900065956187</v>
+        <v>1.011304551841502</v>
       </c>
       <c r="E18">
-        <v>1.04536733069447</v>
+        <v>1.01088641174533</v>
       </c>
       <c r="F18">
-        <v>1.055626334878503</v>
+        <v>1.016672146878471</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035087605071824</v>
+        <v>1.047341686135317</v>
       </c>
       <c r="J18">
-        <v>1.042785157013816</v>
+        <v>1.022289208600526</v>
       </c>
       <c r="K18">
-        <v>1.050186944397694</v>
+        <v>1.024930965872537</v>
       </c>
       <c r="L18">
-        <v>1.048659368530462</v>
+        <v>1.024519840643807</v>
       </c>
       <c r="M18">
-        <v>1.058884152736385</v>
+        <v>1.030209171797741</v>
       </c>
       <c r="N18">
-        <v>1.01819207007775</v>
+        <v>1.011326334062739</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.03676024450913</v>
+        <v>0.9954179399263379</v>
       </c>
       <c r="D19">
-        <v>1.04696875394712</v>
+        <v>1.011638273537042</v>
       </c>
       <c r="E19">
-        <v>1.045433133412303</v>
+        <v>1.011204285223764</v>
       </c>
       <c r="F19">
-        <v>1.055700757158727</v>
+        <v>1.017028358570822</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035098497850312</v>
+        <v>1.047442717072047</v>
       </c>
       <c r="J19">
-        <v>1.042831011724347</v>
+        <v>1.022519529801803</v>
       </c>
       <c r="K19">
-        <v>1.050241265901614</v>
+        <v>1.025195611727674</v>
       </c>
       <c r="L19">
-        <v>1.0487107901637</v>
+        <v>1.024768859182491</v>
       </c>
       <c r="M19">
-        <v>1.058944326326178</v>
+        <v>1.030496491257525</v>
       </c>
       <c r="N19">
-        <v>1.018207270730398</v>
+        <v>1.011402830481192</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.036432700619693</v>
+        <v>0.9937100324579784</v>
       </c>
       <c r="D20">
-        <v>1.046661595697307</v>
+        <v>1.010140994307513</v>
       </c>
       <c r="E20">
-        <v>1.045138886155294</v>
+        <v>1.009778216455312</v>
       </c>
       <c r="F20">
-        <v>1.055367974620936</v>
+        <v>1.015430293197005</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035049612286628</v>
+        <v>1.046987989195276</v>
       </c>
       <c r="J20">
-        <v>1.042625893520292</v>
+        <v>1.021485593733482</v>
       </c>
       <c r="K20">
-        <v>1.049998307348815</v>
+        <v>1.024007839949205</v>
       </c>
       <c r="L20">
-        <v>1.048480807180887</v>
+        <v>1.023651279552321</v>
       </c>
       <c r="M20">
-        <v>1.058675217827086</v>
+        <v>1.029207139423281</v>
       </c>
       <c r="N20">
-        <v>1.01813927339007</v>
+        <v>1.011059432221345</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.035367895481666</v>
+        <v>0.9880480512132973</v>
       </c>
       <c r="D21">
-        <v>1.045663537138396</v>
+        <v>1.005186480130859</v>
       </c>
       <c r="E21">
-        <v>1.044182931968183</v>
+        <v>1.005061245098771</v>
       </c>
       <c r="F21">
-        <v>1.054286974262973</v>
+        <v>1.010144333116622</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03488769041694</v>
+        <v>1.045457901831051</v>
       </c>
       <c r="J21">
-        <v>1.04195824568624</v>
+        <v>1.018054119451816</v>
       </c>
       <c r="K21">
-        <v>1.04920807879318</v>
+        <v>1.020070254786994</v>
       </c>
       <c r="L21">
-        <v>1.047732880316399</v>
+        <v>1.01994736090226</v>
       </c>
       <c r="M21">
-        <v>1.057800359027395</v>
+        <v>1.024936033358227</v>
       </c>
       <c r="N21">
-        <v>1.017917920176692</v>
+        <v>1.009919795884351</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.034698469576369</v>
+        <v>0.9844001010397543</v>
       </c>
       <c r="D22">
-        <v>1.04503644050876</v>
+        <v>1.002001750554731</v>
       </c>
       <c r="E22">
-        <v>1.043582407337261</v>
+        <v>1.002030714297683</v>
       </c>
       <c r="F22">
-        <v>1.053608008819879</v>
+        <v>1.006748095621656</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034783595478347</v>
+        <v>1.044455060319495</v>
       </c>
       <c r="J22">
-        <v>1.041537869275632</v>
+        <v>1.015840594340218</v>
       </c>
       <c r="K22">
-        <v>1.048710970348338</v>
+        <v>1.017533656403576</v>
       </c>
       <c r="L22">
-        <v>1.047262457985065</v>
+        <v>1.017562049397251</v>
       </c>
       <c r="M22">
-        <v>1.05725033618638</v>
+        <v>1.022187046338004</v>
       </c>
       <c r="N22">
-        <v>1.017778528176612</v>
+        <v>1.009184707122505</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.035053339006644</v>
+        <v>0.9863425734906965</v>
       </c>
       <c r="D23">
-        <v>1.045368835839978</v>
+        <v>1.003696847913369</v>
       </c>
       <c r="E23">
-        <v>1.043900706932134</v>
+        <v>1.003643593588824</v>
       </c>
       <c r="F23">
-        <v>1.053967874248908</v>
+        <v>1.008555627105485</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034838994830628</v>
+        <v>1.044990632743178</v>
       </c>
       <c r="J23">
-        <v>1.041760775298662</v>
+        <v>1.017019492097293</v>
       </c>
       <c r="K23">
-        <v>1.048974521270928</v>
+        <v>1.018884300972239</v>
       </c>
       <c r="L23">
-        <v>1.047511853637171</v>
+        <v>1.018832067323469</v>
       </c>
       <c r="M23">
-        <v>1.057541909954375</v>
+        <v>1.02365054930362</v>
       </c>
       <c r="N23">
-        <v>1.017852443106324</v>
+        <v>1.009576201201439</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.036450553163117</v>
+        <v>0.9938035244737934</v>
       </c>
       <c r="D24">
-        <v>1.046678335349546</v>
+        <v>1.010222922895936</v>
       </c>
       <c r="E24">
-        <v>1.045154921604784</v>
+        <v>1.00985624151514</v>
       </c>
       <c r="F24">
-        <v>1.055386109549447</v>
+        <v>1.015517728866493</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035052288084118</v>
+        <v>1.047012966374167</v>
       </c>
       <c r="J24">
-        <v>1.04263707648928</v>
+        <v>1.021542206962159</v>
       </c>
       <c r="K24">
-        <v>1.050011551143643</v>
+        <v>1.024072859853366</v>
       </c>
       <c r="L24">
-        <v>1.048493343300112</v>
+        <v>1.023712453464515</v>
       </c>
       <c r="M24">
-        <v>1.058689885472556</v>
+        <v>1.029277707859609</v>
       </c>
       <c r="N24">
-        <v>1.018142980677809</v>
+        <v>1.011078234860409</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.03807217219489</v>
+        <v>1.002104656399226</v>
       </c>
       <c r="D25">
-        <v>1.048199733527884</v>
+        <v>1.017512939561231</v>
       </c>
       <c r="E25">
-        <v>1.046612596869753</v>
+        <v>1.016802229821301</v>
       </c>
       <c r="F25">
-        <v>1.057034908536952</v>
+        <v>1.023301544840235</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035289814662173</v>
+        <v>1.049189456029155</v>
       </c>
       <c r="J25">
-        <v>1.04365133219559</v>
+        <v>1.026561397467669</v>
       </c>
       <c r="K25">
-        <v>1.05121379717176</v>
+        <v>1.029845339370013</v>
       </c>
       <c r="L25">
-        <v>1.049631528505565</v>
+        <v>1.029145194274013</v>
       </c>
       <c r="M25">
-        <v>1.060022164605759</v>
+        <v>1.035548591147229</v>
       </c>
       <c r="N25">
-        <v>1.01847917066416</v>
+        <v>1.012745285551194</v>
       </c>
     </row>
   </sheetData>
